--- a/AUC_ROC_results/auc/AUC_AD_HAPLO_ONLY_performance.xlsx
+++ b/AUC_ROC_results/auc/AUC_AD_HAPLO_ONLY_performance.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/AUC_ROC_results/auc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6E1DA3EEF613C8264F2C4CDB8584F2254FA88A1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{153BD50F-2861-4410-BFED-D2E23EBDBFE3}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -287,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -321,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -496,14 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,95 +536,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.9717739427860694</v>
+        <v>0.97177394278606943</v>
       </c>
       <c r="C2">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.9706972947761194</v>
+        <v>0.97069729477611943</v>
       </c>
       <c r="C3">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.967949315920398</v>
+        <v>0.96794931592039801</v>
       </c>
       <c r="C4">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.963926461442786</v>
+        <v>0.96392646144278604</v>
       </c>
       <c r="C5">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.960537157960199</v>
+        <v>0.96053715796019901</v>
       </c>
       <c r="C6">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.9548082917705736</v>
+        <v>0.95480829177057358</v>
       </c>
       <c r="C7">
-        <v>99.03846153846155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>99.038461538461547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.9543065920398009</v>
+        <v>0.95430659203980095</v>
       </c>
       <c r="C8">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.9534942475124378</v>
+        <v>0.95349424751243783</v>
       </c>
       <c r="C9">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -610,10 +632,10 @@
         <v>0.9489919552901882</v>
       </c>
       <c r="C10">
-        <v>83.24175824175825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>83.241758241758248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -621,142 +643,142 @@
         <v>0.9409631529850746</v>
       </c>
       <c r="C11">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.9382053805774279</v>
+        <v>0.93820538057742786</v>
       </c>
       <c r="C12">
-        <v>96.29120879120879</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>96.291208791208788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.9316853233830846</v>
+        <v>0.93168532338308463</v>
       </c>
       <c r="C13">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.9297186720698254</v>
+        <v>0.92971867206982539</v>
       </c>
       <c r="C14">
-        <v>99.03846153846155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>99.038461538461547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.928925879396985</v>
+        <v>0.92892587939698501</v>
       </c>
       <c r="C15">
-        <v>98.62637362637363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>98.626373626373635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.9154957706766919</v>
+        <v>0.91549577067669186</v>
       </c>
       <c r="C16">
-        <v>98.76373626373626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>98.763736263736263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.9136738184079601</v>
+        <v>0.91367381840796014</v>
       </c>
       <c r="C17">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.912978078358209</v>
+        <v>0.91297807835820899</v>
       </c>
       <c r="C18">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.9093711034912718</v>
+        <v>0.90937110349127181</v>
       </c>
       <c r="C19">
-        <v>99.03846153846155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>99.038461538461547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.9054804104477612</v>
+        <v>0.90548041044776117</v>
       </c>
       <c r="C20">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.8862251243781095</v>
+        <v>0.88622512437810952</v>
       </c>
       <c r="C21">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.883076803482587</v>
+        <v>0.88307680348258699</v>
       </c>
       <c r="C22">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.8823771766169154</v>
+        <v>0.88237717661691539</v>
       </c>
       <c r="C23">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -764,183 +786,183 @@
         <v>0.8783854166666667</v>
       </c>
       <c r="C24">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.858767144638404</v>
+        <v>0.85876714463840398</v>
       </c>
       <c r="C25">
-        <v>99.03846153846155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>99.038461538461547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.8519123134328359</v>
+        <v>0.85191231343283591</v>
       </c>
       <c r="C26">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0.8327619713930348</v>
+        <v>0.83276197139303476</v>
       </c>
       <c r="C27">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>0.8030402335011185</v>
+        <v>0.80304023350111853</v>
       </c>
       <c r="C28">
-        <v>93.68131868131869</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>93.681318681318686</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>0.7712325507614214</v>
+        <v>0.77123255076142139</v>
       </c>
       <c r="C29">
-        <v>98.07692307692307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>98.076923076923066</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>0.7637671019900498</v>
+        <v>0.76376710199004982</v>
       </c>
       <c r="C30">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>0.7455457089552238</v>
+        <v>0.74554570895522376</v>
       </c>
       <c r="C31">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>0.7428987873134328</v>
+        <v>0.74289878731343284</v>
       </c>
       <c r="C32">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>0.7283504353233831</v>
+        <v>0.72835043532338306</v>
       </c>
       <c r="C33">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>0.7094799440298508</v>
+        <v>0.70947994402985082</v>
       </c>
       <c r="C34">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>0.6667521766169154</v>
+        <v>0.66675217661691544</v>
       </c>
       <c r="C35">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>0.629326026119403</v>
+        <v>0.62932602611940303</v>
       </c>
       <c r="C36">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>0.5307602611940299</v>
+        <v>0.53076026119402986</v>
       </c>
       <c r="C37">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>0.5289567786069652</v>
+        <v>0.52895677860696522</v>
       </c>
       <c r="C38">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>0.4124961131840796</v>
+        <v>0.41249611318407958</v>
       </c>
       <c r="C39">
-        <v>99.17582417582418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>99.175824175824175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.3745918843283582</v>
+        <v>0.37459188432835822</v>
       </c>
       <c r="C40">
-        <v>99.17582417582418</v>
+        <v>99.175824175824175</v>
       </c>
     </row>
   </sheetData>
